--- a/Client/Assets/EXCEL/EventData.xlsx
+++ b/Client/Assets/EXCEL/EventData.xlsx
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Client/Assets/EXCEL/EventData.xlsx
+++ b/Client/Assets/EXCEL/EventData.xlsx
@@ -316,6 +316,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,24 +353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB11"/>
+  <dimension ref="A2:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -646,36 +646,36 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="21" t="s">
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="24" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -688,54 +688,54 @@
       <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="19" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20" t="s">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="22" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="23" t="s">
+      <c r="U3" s="13"/>
+      <c r="V3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="19" t="s">
+      <c r="W3" s="14"/>
+      <c r="X3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="20" t="s">
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="20"/>
+      <c r="AA3" s="16"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1191,55 +1191,109 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2">
+        <v>66</v>
+      </c>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2">
+        <v>66</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="T2:AA2"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
